--- a/opinions/parsed_wiki_data/2006.xlsx
+++ b/opinions/parsed_wiki_data/2006.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -497,37 +497,37 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -557,27 +557,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -587,22 +587,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -617,17 +617,17 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -637,47 +637,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -687,27 +687,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>concurrence3</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -717,17 +717,17 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -742,32 +742,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -802,32 +802,32 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -837,12 +837,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -852,12 +852,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -867,17 +867,17 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -887,47 +887,47 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -942,42 +942,42 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -987,37 +987,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1042,42 +1042,42 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1102,17 +1102,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1137,32 +1137,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
     </row>
@@ -1187,27 +1187,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1237,27 +1237,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1272,12 +1272,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1287,37 +1287,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>joindissent3</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>dissent3</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1347,32 +1347,32 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1402,22 +1402,22 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1437,42 +1437,42 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1487,32 +1487,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1522,12 +1522,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1537,47 +1537,47 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1587,42 +1587,42 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1652,22 +1652,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1687,27 +1687,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1747,37 +1747,37 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -1787,22 +1787,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1812,22 +1812,22 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1847,17 +1847,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1872,12 +1872,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1887,37 +1887,37 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1937,37 +1937,37 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>partjoindissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -1987,17 +1987,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2007,12 +2007,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2022,12 +2022,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2037,42 +2037,42 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2097,37 +2097,37 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2147,37 +2147,37 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
     </row>
@@ -2187,17 +2187,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2207,22 +2207,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2242,37 +2242,37 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2302,32 +2302,32 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2337,17 +2337,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2357,27 +2357,27 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2387,22 +2387,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2412,22 +2412,22 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2447,22 +2447,22 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2497,17 +2497,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2517,17 +2517,17 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2542,42 +2542,42 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2597,37 +2597,37 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2637,17 +2637,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>concurrencedissent</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2657,27 +2657,27 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2697,12 +2697,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2712,22 +2712,22 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>partjoindissent</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2752,32 +2752,32 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2797,37 +2797,37 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>dissentwithoutopinion</t>
+          <t>dissentwithoutopinion dissent</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2837,32 +2837,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2887,17 +2887,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2907,27 +2907,27 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2937,22 +2937,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority joinmajority</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2962,22 +2962,22 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -2987,32 +2987,32 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3022,12 +3022,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3037,47 +3037,47 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3087,27 +3087,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>dissentwithoutopinion</t>
+          <t>dissentwithoutopinion dissent</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3117,17 +3117,17 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3137,12 +3137,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3152,32 +3152,32 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3187,12 +3187,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3202,32 +3202,32 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence partjoinconcurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence partjoinconcurrencedissent</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3237,27 +3237,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3267,17 +3267,17 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3287,37 +3287,37 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3337,37 +3337,37 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3387,12 +3387,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3402,32 +3402,32 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3447,17 +3447,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3467,17 +3467,17 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3487,22 +3487,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3517,17 +3517,17 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3537,12 +3537,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3552,22 +3552,22 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -3587,22 +3587,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3612,22 +3612,22 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3647,7 +3647,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3697,37 +3697,37 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3747,22 +3747,22 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3772,12 +3772,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
     </row>
@@ -3787,22 +3787,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3812,12 +3812,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence partjoinconcurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3847,37 +3847,37 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>concurrencedissent</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
     </row>
@@ -3892,17 +3892,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3912,22 +3912,22 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
     </row>
@@ -3937,22 +3937,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3962,22 +3962,22 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3987,22 +3987,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4012,17 +4012,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>joinconcurrence1</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4037,42 +4037,42 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4092,42 +4092,42 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4137,17 +4137,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4157,17 +4157,17 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>

--- a/opinions/parsed_wiki_data/2006.xlsx
+++ b/opinions/parsed_wiki_data/2006.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -497,37 +497,37 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -587,22 +587,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -617,17 +617,17 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -637,47 +637,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -717,17 +717,17 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -742,32 +742,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -802,32 +802,32 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -837,12 +837,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -852,12 +852,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -867,17 +867,17 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -887,47 +887,47 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -942,27 +942,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -972,12 +972,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -987,37 +987,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
+          <t>concurrence concurrencedissent dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1042,42 +1042,42 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1102,12 +1102,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
+          <t>concurrence concurrencedissent dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
+          <t>concurrence concurrencedissent dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1137,17 +1137,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1157,12 +1157,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1247,12 +1247,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1302,12 +1302,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1352,12 +1352,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1367,12 +1367,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1437,42 +1437,42 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1487,32 +1487,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1522,12 +1522,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1537,47 +1537,47 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1587,42 +1587,42 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1652,17 +1652,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1687,27 +1687,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
+          <t>concurrence concurrencedissent dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
     </row>
@@ -1752,12 +1752,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1767,12 +1767,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1787,22 +1787,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1812,22 +1812,22 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1872,12 +1872,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1887,12 +1887,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1902,12 +1902,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1952,12 +1952,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2117,17 +2117,17 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
     </row>
@@ -2152,12 +2152,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2167,17 +2167,17 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2217,12 +2217,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2302,32 +2302,32 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2337,17 +2337,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2357,27 +2357,27 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2387,22 +2387,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2412,22 +2412,22 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2447,17 +2447,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2497,12 +2497,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2542,42 +2542,42 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2597,37 +2597,37 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2637,17 +2637,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2657,27 +2657,27 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2697,12 +2697,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2712,22 +2712,22 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2752,12 +2752,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2767,12 +2767,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2797,22 +2797,22 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>dissentwithoutopinion dissent</t>
+          <t>dissent dissentwithoutopinion</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2822,12 +2822,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2847,12 +2847,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2937,22 +2937,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>partjoinmajority majority joinmajority</t>
+          <t>joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2962,22 +2962,22 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
     </row>
@@ -2987,32 +2987,32 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3022,12 +3022,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3037,47 +3037,47 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3087,27 +3087,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>dissentwithoutopinion dissent</t>
+          <t>dissent dissentwithoutopinion</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3117,17 +3117,17 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3137,12 +3137,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3152,32 +3152,32 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3187,12 +3187,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
+          <t>concurrence concurrencedissent dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3202,32 +3202,32 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence partjoinconcurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence partjoinconcurrencedissent</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinconcurrence partjoinconcurrencedissent partjoinmajority</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3237,27 +3237,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3267,17 +3267,17 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3287,37 +3287,37 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3337,37 +3337,37 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3387,12 +3387,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3402,32 +3402,32 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3447,17 +3447,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3497,12 +3497,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3552,22 +3552,22 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3587,22 +3587,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3612,22 +3612,22 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3647,7 +3647,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3697,17 +3697,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3717,17 +3717,17 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3752,17 +3752,17 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3787,22 +3787,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3812,12 +3812,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>majority concurrence partjoinconcurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinconcurrence</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3847,12 +3847,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3872,12 +3872,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3897,12 +3897,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3937,22 +3937,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3962,22 +3962,22 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
+          <t>concurrence concurrencedissent dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4037,7 +4037,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4047,12 +4047,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4097,12 +4097,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4112,7 +4112,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -4127,7 +4127,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4162,7 +4162,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
